--- a/coverity_dashboard.xlsx
+++ b/coverity_dashboard.xlsx
@@ -269,7 +269,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>crm-test - Snapshot Comparison</a:t>
+              <a:t>crm-test – First vs Last Snapshot</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -284,7 +284,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Dashboard_crm-test'!D1</f>
+              <f>'Dashboard_crm-test'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -294,12 +294,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_crm-test'!$C$2:$C$12</f>
+              <f>'Dashboard_crm-test'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_crm-test'!$D$2:$D$12</f>
+              <f>'Dashboard_crm-test'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard_crm-test'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard_crm-test'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard_crm-test'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -381,7 +405,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>jenkins - Snapshot Comparison</a:t>
+              <a:t>jenkins – First vs Last Snapshot</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -396,7 +420,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Dashboard_jenkins'!D1</f>
+              <f>'Dashboard_jenkins'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -406,12 +430,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_jenkins'!$C$2:$C$7</f>
+              <f>'Dashboard_jenkins'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_jenkins'!$D$2:$D$7</f>
+              <f>'Dashboard_jenkins'!$B$2:$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard_jenkins'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard_jenkins'!$A$2:$A$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard_jenkins'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -493,7 +541,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>online-shop-backend - Snapshot Comparison</a:t>
+              <a:t>online-shop-backend – First vs Last Snapshot</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -508,7 +556,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Dashboard_online-shop-backend'!D1</f>
+              <f>'Dashboard_online-shop-backend'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -518,12 +566,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_online-shop-backend'!$C$2:$C$7</f>
+              <f>'Dashboard_online-shop-backend'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_online-shop-backend'!$D$2:$D$7</f>
+              <f>'Dashboard_online-shop-backend'!$B$2:$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard_online-shop-backend'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard_online-shop-backend'!$A$2:$A$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard_online-shop-backend'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -605,7 +677,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>todo-go - Snapshot Comparison</a:t>
+              <a:t>todo-go – First vs Last Snapshot</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -620,7 +692,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Dashboard_todo-go'!D1</f>
+              <f>'Dashboard_todo-go'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -630,12 +702,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_todo-go'!$C$2:$C$5</f>
+              <f>'Dashboard_todo-go'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_todo-go'!$D$2:$D$5</f>
+              <f>'Dashboard_todo-go'!$B$2:$B$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard_todo-go'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard_todo-go'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard_todo-go'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -717,7 +813,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>webgoat - Snapshot Comparison</a:t>
+              <a:t>webgoat – First vs Last Snapshot</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -732,7 +828,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Dashboard_webgoat'!D1</f>
+              <f>'Dashboard_webgoat'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -742,12 +838,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_webgoat'!$C$2:$C$14</f>
+              <f>'Dashboard_webgoat'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_webgoat'!$D$2:$D$14</f>
+              <f>'Dashboard_webgoat'!$B$2:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard_webgoat'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard_webgoat'!$A$2:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard_webgoat'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -870,7 +990,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -897,7 +1017,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -924,7 +1044,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -951,7 +1071,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -978,7 +1098,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -23211,7 +23331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23222,242 +23342,108 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>High impact security</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>17</v>
+          <t>Control flow issues</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Low impact security</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
+          <t>High impact security</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+          <t>Low impact security</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
+          <t>Medium impact security</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Control flow issues</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+          <t>Null pointer dereferences</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>High impact security</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>17</v>
+          <t>Resource leaks</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Low impact security</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Null pointer dereferences</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Resource leaks</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>crm-test</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>Sigma</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
         <v>16</v>
       </c>
     </row>
@@ -23473,7 +23459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23484,142 +23470,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>High impact security</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Medium impact security</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Sigma</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="B4" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>High impact security</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>jenkins</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C4" t="n">
         <v>19</v>
       </c>
     </row>
@@ -23635,7 +23535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23646,142 +23546,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Exceptional resource leaks</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>High impact security</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Sigma</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="B4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Exceptional resource leaks</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>High impact security</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>online-shop-backend</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -23797,7 +23611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23808,102 +23622,43 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>todo-go</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Low impact security</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="B2" t="n">
         <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>todo-go</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Medium impact security</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>todo-go</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Low impact security</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>todo-go</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23919,7 +23674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23930,282 +23685,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Snapshot</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Count</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Control flow issues</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="B2" t="n">
         <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>High impact security</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
         <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Incorrect expression</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="B4" t="n">
         <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Low impact security</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+          <t>Insecure random category</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
+          <t>Low impact security</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Null pointer dereferences</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>13</v>
+          <t>Medium impact security</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Resource leaks</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
+          <t>Null pointer dereferences</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>92</v>
+          <t>Resource leaks</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>High impact security</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Insecure random category</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Low impact security</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Medium impact security</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>webgoat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>Sigma</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="B10" t="n">
+        <v>92</v>
+      </c>
+      <c r="C10" t="n">
         <v>116</v>
       </c>
     </row>
